--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvin/Documents/UniversitätPotsdam/BachelorArbeit/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marvin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9565B2D4-593B-524D-BEA5-A0E0BFD7FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA26D345-BC6F-8340-B182-C6F9BDE55B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{0015452D-9F96-FB4F-A71F-98D7120CC8E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{0015452D-9F96-FB4F-A71F-98D7120CC8E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Funktionale Anforderungen" sheetId="3" r:id="rId1"/>
-    <sheet name="Auswertung" sheetId="1" r:id="rId2"/>
+    <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="146">
   <si>
     <t>Kategorie</t>
   </si>
@@ -48,18 +47,12 @@
     <t>Das Produkt bietet eine Importfunktion für xml Dateien zum Empfangen von Daten (aus einem ERP-System/Datenbank).</t>
   </si>
   <si>
-    <t>Das Produkt bietet eine Importfunktion für xsl Dateien zum Empfangen von Daten (aus einem ERP-System/Datenbank).</t>
-  </si>
-  <si>
     <t>Das Produkt bietet eine Importfunktion für json Dateien zum Empfangen von Daten (aus einem ERP-System/Datenbank).</t>
   </si>
   <si>
     <t>Das Produkt bietet eine Exportfunktion zum Erstellen von pdf-Dateien</t>
   </si>
   <si>
-    <t>Das Produkt bietet eine Exportfunktion zum Erstellen von xsl-Dateien.</t>
-  </si>
-  <si>
     <t>Bei einem Import kann das Produkt aus den importierten Daten automatisiert ein Prozessmodell erstellen.</t>
   </si>
   <si>
@@ -78,9 +71,6 @@
     <t>Gantt Charts lassen sich modular erstellen, um beispielsweise den Einführungsprozess von ERP-Systemen in verschiedene Schritte aufzuteilen, die untereinander verknüpft sind.</t>
   </si>
   <si>
-    <t>Die Software ermöglicht die Erstellung von Gantt Charts bei dem Daten direkt aus dem ERP-System genutzt werden können. (EIGENTLICH AUCH TEIL VON SCHNITTESTELLE)</t>
-  </si>
-  <si>
     <t>Modellierungstechniken</t>
   </si>
   <si>
@@ -108,9 +98,6 @@
     <t>Die Software bietet eine Kommentarfunktion, um Kommunikation zwischen Modellierern und Stakeholdern im Modellierungsprozess zu ermöglichen.</t>
   </si>
   <si>
-    <t>Erweiterte Funktionen /BPM</t>
-  </si>
-  <si>
     <t>Es ist möglich, eine Prozesssimulierung auszuführen.</t>
   </si>
   <si>
@@ -220,21 +207,6 @@
   </si>
   <si>
     <t>Es kann eine Prozesslandkarte erstellt werden, wobei Teilprozesse aufgeklappt und eingeklappt werden können, wodurch verschiedene Detaillierungsgrade dargestellt werden können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begründet? </t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>Ture</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>treu</t>
   </si>
   <si>
     <t>Import, Export-Funktion</t>
@@ -1082,1047 +1054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA232343-8FA6-E548-BCE7-99AA3EC146D6}">
-  <dimension ref="A1:C247"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="54.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="4"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="4"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="4"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="4"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="4"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="4"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="4"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="4"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="4"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="4"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="4"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="4"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="4"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="4"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="4"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="4"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="4"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="4"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="4"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="4"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="4"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="4"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="4"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="4"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="4"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="4"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="4"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="4"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="4"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="4"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="4"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="4"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="4"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="4"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="4"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="4"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="4"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="4"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="4"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="4"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="4"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="4"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="4"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="4"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="4"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="4"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="4"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="4"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="4"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="4"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="4"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="4"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="4"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="4"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="4"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="4"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="4"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="4"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="4"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="4"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="4"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="4"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="4"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="4"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="4"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="4"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="4"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="4"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A45:A49"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC805EA4-3028-FE43-BFDA-0D07C76094A0}">
   <dimension ref="A1:U265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="X81" sqref="X81"/>
@@ -2137,61 +1073,61 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
@@ -2199,286 +1135,286 @@
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
       <c r="G2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
         <v>132</v>
       </c>
-      <c r="O2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" t="s">
         <v>141</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" t="s">
-        <v>148</v>
-      </c>
-      <c r="S2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
         <v>133</v>
       </c>
-      <c r="O4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" t="s">
-        <v>142</v>
-      </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="R4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" t="s">
-        <v>101</v>
-      </c>
       <c r="Q6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="S6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2498,61 +1434,61 @@
     </row>
     <row r="9" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U9">
         <f>(COUNTIF(C9:S9,"JA") + COUNTIF(C9:S9,"YES")) / COUNTA(C9:S9)</f>
@@ -2562,58 +1498,58 @@
     <row r="10" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U10">
         <f>(COUNTIF(C10:S10,"JA") + COUNTIF(C10:S10,"YES")) / COUNTA(C10:S10)</f>
@@ -2623,58 +1559,58 @@
     <row r="11" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U11">
         <f>(COUNTIF(C11:S11,"JA") + COUNTIF(C11:S11,"YES")) / COUNTA(C11:S11)</f>
@@ -2684,58 +1620,58 @@
     <row r="12" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U12">
         <f>(COUNTIF(C12:S12,"JA") + COUNTIF(C12:S12,"YES")) / COUNTA(C12:S12)</f>
@@ -2745,58 +1681,58 @@
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U13">
         <f>(COUNTIF(C13:S13,"JA") + COUNTIF(C13:S13,"YES")) / COUNTA(C13:S13)</f>
@@ -2815,7 +1751,7 @@
     <row r="15" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3">
         <f>COUNTIF(C9:C13,"JA") / COUNTA(C9:C13)</f>
@@ -2900,61 +1836,61 @@
     </row>
     <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U17">
         <f>(COUNTIF(C17:S17,"JA") + COUNTIF(C17:S17,"YES")) / COUNTA(C17:S17)</f>
@@ -2964,58 +1900,58 @@
     <row r="18" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U18">
         <f>(COUNTIF(C18:S18,"JA") + COUNTIF(C18:S18,"YES")) / COUNTA(C18:S18)</f>
@@ -3025,58 +1961,58 @@
     <row r="19" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U19">
         <f>(COUNTIF(C19:S19,"JA") + COUNTIF(C19:S19,"YES")) / COUNTA(C9:S9)</f>
@@ -3086,58 +2022,58 @@
     <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U20">
         <f>(COUNTIF(C20:S20,"JA") + COUNTIF(C20:S20,"YES")) / COUNTA(C20:S20)</f>
@@ -3156,7 +2092,7 @@
     <row r="22" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3">
         <f>COUNTIF(C17:C20,"JA") / COUNTA(C17:C20)</f>
@@ -3241,61 +2177,61 @@
     </row>
     <row r="24" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U24">
         <f t="shared" ref="U24:U37" si="0">(COUNTIF(C24:S24,"JA") + COUNTIF(C24:S24,"YES")) / COUNTA(C24:S24)</f>
@@ -3305,58 +2241,58 @@
     <row r="25" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
@@ -3366,58 +2302,58 @@
     <row r="26" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N26" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -3427,58 +2363,58 @@
     <row r="27" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -3488,58 +2424,58 @@
     <row r="28" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
@@ -3549,58 +2485,58 @@
     <row r="29" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
@@ -3610,58 +2546,58 @@
     <row r="30" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
@@ -3671,58 +2607,58 @@
     <row r="31" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R31" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
@@ -3732,58 +2668,58 @@
     <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
@@ -3793,58 +2729,58 @@
     <row r="33" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R33" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
@@ -3854,58 +2790,58 @@
     <row r="34" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
@@ -3915,58 +2851,58 @@
     <row r="35" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
@@ -3976,58 +2912,58 @@
     <row r="36" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
@@ -4037,58 +2973,58 @@
     <row r="37" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R37" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
@@ -4107,7 +3043,7 @@
     <row r="39" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3">
         <f>COUNTIF(C24:C37,"JA") / COUNTA(C24:C37)</f>
@@ -4192,61 +3128,61 @@
     </row>
     <row r="41" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N41" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R41" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U41">
         <f t="shared" ref="U41:U48" si="1">(COUNTIF(C41:S41,"JA") + COUNTIF(C41:S41,"YES")) / COUNTA(C41:S41)</f>
@@ -4256,58 +3192,58 @@
     <row r="42" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N42" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U42">
         <f t="shared" si="1"/>
@@ -4317,58 +3253,58 @@
     <row r="43" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U43">
         <f t="shared" si="1"/>
@@ -4378,58 +3314,58 @@
     <row r="44" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L44" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O44" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
@@ -4439,58 +3375,58 @@
     <row r="45" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R45" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U45">
         <f t="shared" si="1"/>
@@ -4500,58 +3436,58 @@
     <row r="46" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R46" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
@@ -4561,58 +3497,58 @@
     <row r="47" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M47" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N47" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R47" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S47" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U47">
         <f t="shared" si="1"/>
@@ -4622,58 +3558,58 @@
     <row r="48" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U48">
         <f t="shared" si="1"/>
@@ -4692,7 +3628,7 @@
     <row r="50" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2">
         <f>COUNTIF(C41:C48,"JA") / COUNTA(C41:C48)</f>
@@ -4777,61 +3713,61 @@
     </row>
     <row r="52" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N52" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O52" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U52">
         <f t="shared" ref="U52:U58" si="2">(COUNTIF(C52:S52,"JA") + COUNTIF(C52:S52,"YES")) / COUNTA(C52:S52)</f>
@@ -4841,58 +3777,58 @@
     <row r="53" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N53" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U53">
         <f t="shared" si="2"/>
@@ -4902,58 +3838,58 @@
     <row r="54" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N54" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U54">
         <f t="shared" si="2"/>
@@ -4963,58 +3899,58 @@
     <row r="55" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N55" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O55" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U55">
         <f t="shared" si="2"/>
@@ -5024,58 +3960,58 @@
     <row r="56" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N56" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O56" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U56">
         <f t="shared" si="2"/>
@@ -5085,58 +4021,58 @@
     <row r="57" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M57" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N57" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O57" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S57" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U57">
         <f t="shared" si="2"/>
@@ -5146,58 +4082,58 @@
     <row r="58" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M58" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N58" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O58" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S58" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U58">
         <f t="shared" si="2"/>
@@ -5217,7 +4153,7 @@
     <row r="60" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2">
         <f>COUNTIF(C52:C58,"JA") / COUNTA(C52:C58)</f>
@@ -5303,61 +4239,61 @@
     </row>
     <row r="62" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M62" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N62" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O62" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S62" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U62">
         <f>(COUNTIF(C62:S62,"JA") + COUNTIF(C62:S62,"YES")) / COUNTA(C62:S62)</f>
@@ -5367,58 +4303,58 @@
     <row r="63" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N63" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U63">
         <f>(COUNTIF(C63:S63,"JA") + COUNTIF(C63:S63,"YES")) / COUNTA(C63:S63)</f>
@@ -5428,58 +4364,58 @@
     <row r="64" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J64" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N64" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O64" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R64" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S64" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U64">
         <f>(COUNTIF(C64:S64,"JA") + COUNTIF(C64:S64,"YES")) / COUNTA(C64:S64)</f>
@@ -5489,58 +4425,58 @@
     <row r="65" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J65" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M65" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O65" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S65" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U65">
         <f>(COUNTIF(C65:S65,"JA") + COUNTIF(C65:S65,"YES")) / COUNTA(C65:S65)</f>
@@ -5550,58 +4486,58 @@
     <row r="66" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J66" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K66" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M66" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N66" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O66" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q66" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R66" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S66" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U66">
         <f>(COUNTIF(C66:S66,"JA") + COUNTIF(C66:S66,"YES")) / COUNTA(C66:S66)</f>
@@ -5620,7 +4556,7 @@
     <row r="68" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2">
         <f>COUNTIF(C62:C66,"JA") / COUNTA(C62:C66)</f>
@@ -5705,61 +4641,61 @@
     </row>
     <row r="70" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N70" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O70" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q70" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R70" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U70">
         <f t="shared" ref="U70:U80" si="3">(COUNTIF(C70:S70,"JA") + COUNTIF(C70:S70,"YES")) / COUNTA(C70:S70)</f>
@@ -5769,58 +4705,58 @@
     <row r="71" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N71" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P71" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R71" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S71" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U71">
         <f t="shared" si="3"/>
@@ -5830,58 +4766,58 @@
     <row r="72" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J72" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M72" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N72" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R72" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S72" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U72">
         <f t="shared" si="3"/>
@@ -5891,58 +4827,58 @@
     <row r="73" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J73" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M73" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N73" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S73" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U73" s="19">
         <f t="shared" si="3"/>
@@ -5952,58 +4888,58 @@
     <row r="74" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J74" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M74" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O74" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P74" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S74" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U74">
         <f t="shared" si="3"/>
@@ -6013,58 +4949,58 @@
     <row r="75" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I75" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J75" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S75" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U75">
         <f t="shared" si="3"/>
@@ -6074,58 +5010,58 @@
     <row r="76" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
       <c r="B76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J76" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M76" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N76" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R76" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S76" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U76">
         <f t="shared" si="3"/>
@@ -6135,58 +5071,58 @@
     <row r="77" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J77" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M77" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O77" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="R77" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S77" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U77">
         <f t="shared" si="3"/>
@@ -6196,58 +5132,58 @@
     <row r="78" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R78" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S78" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U78">
         <f t="shared" si="3"/>
@@ -6257,58 +5193,58 @@
     <row r="79" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K79" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N79" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P79" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q79" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R79" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S79" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="U79">
         <f t="shared" si="3"/>
@@ -6318,58 +5254,58 @@
     <row r="80" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H80" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J80" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M80" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N80" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R80" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="U80">
         <f t="shared" si="3"/>
@@ -6378,7 +5314,7 @@
     </row>
     <row r="82" spans="2:21" ht="20" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4">
         <f>COUNTIF(C70:C80,"JA") / COUNTA(C70:C80)</f>
@@ -6500,7 +5436,7 @@
     </row>
     <row r="85" spans="2:21" ht="20" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4">
         <f>(COUNTIF(C9:C13,"JA")+COUNTIF(C17:C20,"JA")+COUNTIF(C24:C37,"JA")+COUNTIF(C41:C48,"JA")+COUNTIF(C52:C58,"JA")+COUNTIF(C62:C66,"JA")+COUNTIF(C70:C80,"JA")) / (COUNTA(C9:C13)+COUNTA(C17:C20)+COUNTA(C24:C37)+COUNTA(C41:C48)+COUNTA(C52:C58)+COUNTA(C62:C66)+COUNTA(C70:C80))</f>
